--- a/Files/CommonSenseQA Files/ComSen_results.xlsx
+++ b/Files/CommonSenseQA Files/ComSen_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47bc981eb124341c/Ambiente de Trabalho/TESE_2024/DATASETS TESE/DATASET_ANSWERS/ComSen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="11_8C7CFDCE8F79A8D366075C52F3A352B2B791AF77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E580635-D70B-4CBE-AC4C-86BD78F6B49D}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="11_8C7CFDCE8F79A8D366075C52F3A352B2B791AF77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D88EE064-CF26-4F3C-9402-8FED09578E8B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Analysis" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>TotalQuestions</t>
   </si>
@@ -121,6 +121,15 @@
     <t>Binomial Distribituion Parmeters
 (CommonSenseQA)</t>
   </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>alpha (confidence level)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test statistic </t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -319,11 +328,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,6 +425,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1195,11 +1264,1554 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16CCBEA-2D0E-4492-AD5A-59B71B74D5C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="3143250"/>
+              <a:ext cx="10007600" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑣𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&lt;</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡𝑒𝑠𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>:</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> = </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+ </m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:rad>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>~</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(0,1), </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢𝑛𝑑𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0 </m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5, </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16CCBEA-2D0E-4492-AD5A-59B71B74D5C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="3143250"/>
+              <a:ext cx="10007600" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2  𝑣𝑠 𝐻_1: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&lt;𝜇_2, 𝑤ℎ𝑒𝑟𝑒 𝜇_1  𝑖𝑠 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝜇_2 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−4.</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡𝑒𝑠𝑡 𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐:𝑧 =  (𝜇_1−𝜇_2)/√((𝜎_1^2)/𝑛_1 + (𝜎_2^2)/𝑛_2 )  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>~</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑁(0,1), 𝑢𝑛𝑑𝑒𝑟 𝐻_(0 ) 𝑤ℎ𝑒𝑟𝑒 𝜎_1 𝑖𝑠 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5, 𝜎_2 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−4 𝑎𝑛𝑑 𝑛_1 𝑎𝑛𝑑 𝑛_2  𝑡ℎ𝑒 𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠 𝑖𝑛 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝐺𝑃𝑇−4 𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦.</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1491,7 +3103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1646,32 +3258,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFEAB05-6658-406C-B725-3D01FFC0C4D7}">
-  <dimension ref="B9:D15"/>
+  <dimension ref="B9:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="27"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
@@ -1734,6 +3348,33 @@
       <c r="D15" s="12">
         <f>SQRT(D14)</f>
         <v>4.1379007023153926</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="27">
+        <f>(C13-D13)/SQRT((C15/C11)+(D15/D11))</f>
+        <v>-22.63168003652174</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="29">
+        <f>_xlfn.NORM.DIST(C32,0,1,TRUE)</f>
+        <v>1.0569767293575594E-113</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="31">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
